--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_8_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_8_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>768647.244161539</v>
+        <v>829036.8871562341</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>911397.467376409</v>
+        <v>911397.4673764091</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8405185.21106508</v>
+        <v>12070588.39707725</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9244625.478077117</v>
+        <v>7552033.379636957</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,19 +670,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>105.6245995301945</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>19.65231241488366</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>84.97365353379641</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>37.10634673358876</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>57.16776090941369</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -1034,16 +1034,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>69.99226724763528</v>
       </c>
       <c r="X6" t="n">
-        <v>147.2379120664689</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1071,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>37.10634673358876</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1135,20 +1135,20 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>43.09198093152767</v>
-      </c>
-      <c r="G8" t="n">
-        <v>15.30273751513505</v>
-      </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>14.59515906968671</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1232,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>97.76646051984098</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -1271,16 +1271,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1375,13 +1375,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>225.1085773340546</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>414.5345316725085</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>101.6133076792576</v>
       </c>
       <c r="S11" t="n">
         <v>191.5145789473921</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>71.30226553376832</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1451,16 +1451,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>30.34326826346045</v>
+        <v>124.349542204791</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>164.0485367057106</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>198.508004016692</v>
       </c>
       <c r="U12" t="n">
         <v>225.9143408729531</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>104.8285991915088</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>105.0513640276765</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3002335004234</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>191.5145789473921</v>
       </c>
       <c r="T14" t="n">
-        <v>219.7330284880335</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2841964404264</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>42.3512721399818</v>
+        <v>272.7790145022938</v>
       </c>
     </row>
     <row r="15">
@@ -1691,16 +1691,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.9324908012807</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1751,7 +1751,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>39.5696557039006</v>
+        <v>166.3021316144192</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>105.0513640276765</v>
       </c>
       <c r="U16" t="n">
-        <v>104.8285991915089</v>
+        <v>286.3002335004234</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>174.1000420861286</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>96.05432859460988</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2004,13 +2004,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>65.05884990877782</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2058,10 +2058,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>368.5238654285691</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2092,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>68.16986319857376</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2140,13 +2140,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>83.59830597394804</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>48.10637266807393</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>251.6298792882201</v>
       </c>
       <c r="D23" t="n">
-        <v>130.4588318996847</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2335,10 +2335,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2535,10 +2535,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,25 +2557,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>83.05725119224505</v>
       </c>
       <c r="I26" t="n">
-        <v>10.16516783205951</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,10 +2602,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2639,7 +2639,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>147.445065564638</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>59.72683757586842</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>249.0529787410936</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>253.4858241640208</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>168.7756050755991</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>101.8825978425036</v>
       </c>
       <c r="H32" t="n">
-        <v>113.2103725175764</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>156.127162662147</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>108.219802131625</v>
       </c>
     </row>
     <row r="35">
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>199.8692462101356</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>351.4272113514993</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3429,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>128.6652719985047</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>13.40689407064289</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>155.1038963196026</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>102.5551903757783</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
@@ -3523,7 +3523,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3593,7 +3593,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933832</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>136.5310119231965</v>
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>38.85099796338674</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>155.4526127311942</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>109.6645108657254</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>337.4769055236277</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,22 +3787,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3824,22 +3824,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3872,22 +3872,22 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T42" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.8879277888686</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>1.350462724306631</v>
       </c>
       <c r="Y42" t="n">
-        <v>8.780607313893601</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>52.1084405918625</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3957,13 +3957,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>128.78350070179</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>336.9005193157999</v>
+        <v>131.9979316755064</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4036,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4055,28 +4055,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4115,7 +4115,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V45" t="n">
-        <v>35.89849868601451</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -4124,7 +4124,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>6.169481899532853</v>
       </c>
     </row>
     <row r="46">
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>223.82438355203</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>366.1018663125844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>366.1018663125844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>366.1018663125844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>366.1018663125844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>259.4103516356203</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W2" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X2" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y2" t="n">
-        <v>366.1018663125844</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>964.0571555106362</v>
+        <v>451.2235123993538</v>
       </c>
       <c r="C3" t="n">
-        <v>789.6041262295092</v>
+        <v>431.3726917782591</v>
       </c>
       <c r="D3" t="n">
-        <v>640.669716568258</v>
+        <v>431.3726917782591</v>
       </c>
       <c r="E3" t="n">
-        <v>481.4322615628025</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="F3" t="n">
-        <v>334.8977035896875</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G3" t="n">
-        <v>196.166878172303</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4415,10 +4415,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>473.4149733950735</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
         <v>473.4149733950735</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y3" t="n">
-        <v>964.0571555106362</v>
+        <v>619.4388494194218</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>104.5536560184564</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C5" t="n">
-        <v>104.5536560184564</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D5" t="n">
-        <v>104.5536560184564</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E5" t="n">
-        <v>104.5536560184564</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F5" t="n">
-        <v>46.80844297864461</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4594,25 +4594,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>348.0024326625565</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>348.0024326625565</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>104.5536560184564</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4649,49 +4649,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>486.8488635328713</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>259.0600686093459</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V6" t="n">
-        <v>259.0600686093459</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W6" t="n">
-        <v>259.0600686093459</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="X6" t="n">
-        <v>110.334904905842</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>333.7844730889342</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
-        <v>90.33569644483418</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D8" t="n">
-        <v>90.33569644483418</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
-        <v>90.33569644483418</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F8" t="n">
-        <v>46.80844297864461</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T8" t="n">
-        <v>577.2332497330343</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U8" t="n">
-        <v>577.2332497330343</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V8" t="n">
-        <v>577.2332497330343</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W8" t="n">
-        <v>577.2332497330343</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X8" t="n">
-        <v>333.7844730889342</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y8" t="n">
-        <v>333.7844730889342</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>125.0774898247174</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>125.0774898247174</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>125.0774898247174</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>486.8488635328713</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4910,25 +4910,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>865.3031549855443</v>
       </c>
       <c r="T9" t="n">
-        <v>588.4532163200711</v>
+        <v>663.1165603443104</v>
       </c>
       <c r="U9" t="n">
-        <v>360.2295980564601</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="V9" t="n">
-        <v>125.0774898247174</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W9" t="n">
-        <v>125.0774898247174</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X9" t="n">
-        <v>125.0774898247174</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y9" t="n">
-        <v>125.0774898247174</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1040.966527303158</v>
+        <v>866.3043321384853</v>
       </c>
       <c r="C11" t="n">
-        <v>1040.966527303158</v>
+        <v>866.3043321384853</v>
       </c>
       <c r="D11" t="n">
-        <v>682.7008286964076</v>
+        <v>866.3043321384853</v>
       </c>
       <c r="E11" t="n">
-        <v>455.3184273488777</v>
+        <v>866.3043321384853</v>
       </c>
       <c r="F11" t="n">
         <v>455.3184273488777</v>
@@ -5041,10 +5041,10 @@
         <v>36.5966781847277</v>
       </c>
       <c r="J11" t="n">
-        <v>89.31538725293285</v>
+        <v>89.31538725293294</v>
       </c>
       <c r="K11" t="n">
-        <v>289.0718704783262</v>
+        <v>289.0718704783263</v>
       </c>
       <c r="L11" t="n">
         <v>589.1640791381762</v>
@@ -5053,10 +5053,10 @@
         <v>939.6810283235442</v>
       </c>
       <c r="N11" t="n">
-        <v>1281.237710655106</v>
+        <v>1281.237710655107</v>
       </c>
       <c r="O11" t="n">
-        <v>1558.572362542935</v>
+        <v>1558.572362542936</v>
       </c>
       <c r="P11" t="n">
         <v>1757.596688657722</v>
@@ -5065,28 +5065,28 @@
         <v>1829.833909236385</v>
       </c>
       <c r="R11" t="n">
-        <v>1829.833909236385</v>
+        <v>1727.194204509862</v>
       </c>
       <c r="S11" t="n">
-        <v>1636.384839592554</v>
+        <v>1533.745134866032</v>
       </c>
       <c r="T11" t="n">
-        <v>1414.432285564238</v>
+        <v>1311.792580837715</v>
       </c>
       <c r="U11" t="n">
-        <v>1414.432285564238</v>
+        <v>1311.792580837715</v>
       </c>
       <c r="V11" t="n">
-        <v>1414.432285564238</v>
+        <v>1311.792580837715</v>
       </c>
       <c r="W11" t="n">
-        <v>1414.432285564238</v>
+        <v>1239.770090399565</v>
       </c>
       <c r="X11" t="n">
-        <v>1040.966527303158</v>
+        <v>866.3043321384853</v>
       </c>
       <c r="Y11" t="n">
-        <v>1040.966527303158</v>
+        <v>866.3043321384853</v>
       </c>
     </row>
     <row r="12">
@@ -5096,16 +5096,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>362.7154117417813</v>
+        <v>162.2022763713853</v>
       </c>
       <c r="C12" t="n">
-        <v>332.065645819094</v>
+        <v>36.5966781847277</v>
       </c>
       <c r="D12" t="n">
-        <v>183.1312361578427</v>
+        <v>36.5966781847277</v>
       </c>
       <c r="E12" t="n">
-        <v>183.1312361578427</v>
+        <v>36.5966781847277</v>
       </c>
       <c r="F12" t="n">
         <v>36.5966781847277</v>
@@ -5150,22 +5150,22 @@
         <v>1664.128316604354</v>
       </c>
       <c r="T12" t="n">
-        <v>1664.128316604354</v>
+        <v>1463.615181233958</v>
       </c>
       <c r="U12" t="n">
-        <v>1435.93201269228</v>
+        <v>1235.418877321884</v>
       </c>
       <c r="V12" t="n">
-        <v>1200.779904460538</v>
+        <v>1000.266769090142</v>
       </c>
       <c r="W12" t="n">
-        <v>946.5425477323361</v>
+        <v>746.0294123619401</v>
       </c>
       <c r="X12" t="n">
-        <v>738.6910475268032</v>
+        <v>538.1779121564073</v>
       </c>
       <c r="Y12" t="n">
-        <v>530.9307487618494</v>
+        <v>330.4176133914534</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>36.5966781847277</v>
+        <v>142.4841521155447</v>
       </c>
       <c r="C13" t="n">
-        <v>36.5966781847277</v>
+        <v>142.4841521155447</v>
       </c>
       <c r="D13" t="n">
-        <v>36.5966781847277</v>
+        <v>142.4841521155447</v>
       </c>
       <c r="E13" t="n">
-        <v>36.5966781847277</v>
+        <v>142.4841521155447</v>
       </c>
       <c r="F13" t="n">
-        <v>36.5966781847277</v>
+        <v>142.4841521155447</v>
       </c>
       <c r="G13" t="n">
-        <v>36.5966781847277</v>
+        <v>142.4841521155447</v>
       </c>
       <c r="H13" t="n">
-        <v>36.5966781847277</v>
+        <v>142.4841521155447</v>
       </c>
       <c r="I13" t="n">
         <v>36.5966781847277</v>
@@ -5229,22 +5229,22 @@
         <v>431.9013221525053</v>
       </c>
       <c r="T13" t="n">
-        <v>325.7888332356604</v>
+        <v>431.9013221525053</v>
       </c>
       <c r="U13" t="n">
-        <v>36.5966781847277</v>
+        <v>431.9013221525053</v>
       </c>
       <c r="V13" t="n">
-        <v>36.5966781847277</v>
+        <v>431.9013221525053</v>
       </c>
       <c r="W13" t="n">
-        <v>36.5966781847277</v>
+        <v>142.4841521155447</v>
       </c>
       <c r="X13" t="n">
-        <v>36.5966781847277</v>
+        <v>142.4841521155447</v>
       </c>
       <c r="Y13" t="n">
-        <v>36.5966781847277</v>
+        <v>142.4841521155447</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1191.63653417933</v>
+        <v>36.5966781847277</v>
       </c>
       <c r="C14" t="n">
-        <v>1191.63653417933</v>
+        <v>36.5966781847277</v>
       </c>
       <c r="D14" t="n">
-        <v>833.3708355725795</v>
+        <v>36.5966781847277</v>
       </c>
       <c r="E14" t="n">
-        <v>447.5825829743353</v>
+        <v>36.5966781847277</v>
       </c>
       <c r="F14" t="n">
         <v>36.5966781847277</v>
@@ -5281,13 +5281,13 @@
         <v>89.31538725293291</v>
       </c>
       <c r="K14" t="n">
-        <v>289.0718704783263</v>
+        <v>289.0718704783262</v>
       </c>
       <c r="L14" t="n">
         <v>589.1640791381762</v>
       </c>
       <c r="M14" t="n">
-        <v>939.6810283235443</v>
+        <v>939.6810283235444</v>
       </c>
       <c r="N14" t="n">
         <v>1281.237710655107</v>
@@ -5305,25 +5305,25 @@
         <v>1829.833909236385</v>
       </c>
       <c r="S14" t="n">
-        <v>1829.833909236385</v>
+        <v>1636.384839592554</v>
       </c>
       <c r="T14" t="n">
-        <v>1607.881355208068</v>
+        <v>1636.384839592554</v>
       </c>
       <c r="U14" t="n">
-        <v>1607.881355208068</v>
+        <v>1382.562418945659</v>
       </c>
       <c r="V14" t="n">
-        <v>1607.881355208068</v>
+        <v>1051.499531602089</v>
       </c>
       <c r="W14" t="n">
-        <v>1607.881355208068</v>
+        <v>698.7308763319745</v>
       </c>
       <c r="X14" t="n">
-        <v>1234.415596946988</v>
+        <v>698.7308763319745</v>
       </c>
       <c r="Y14" t="n">
-        <v>1191.63653417933</v>
+        <v>423.1965182488495</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>498.2997644011269</v>
+        <v>370.2871624713102</v>
       </c>
       <c r="C15" t="n">
-        <v>323.8467351199999</v>
+        <v>195.8341331901832</v>
       </c>
       <c r="D15" t="n">
-        <v>174.9123254587487</v>
+        <v>195.8341331901832</v>
       </c>
       <c r="E15" t="n">
-        <v>174.9123254587487</v>
+        <v>36.5966781847277</v>
       </c>
       <c r="F15" t="n">
-        <v>174.9123254587487</v>
+        <v>36.5966781847277</v>
       </c>
       <c r="G15" t="n">
         <v>36.5966781847277</v>
@@ -5360,19 +5360,19 @@
         <v>36.5966781847277</v>
       </c>
       <c r="K15" t="n">
-        <v>227.6622645210758</v>
+        <v>36.5966781847277</v>
       </c>
       <c r="L15" t="n">
-        <v>545.9779205949733</v>
+        <v>350.1268696242947</v>
       </c>
       <c r="M15" t="n">
-        <v>969.4164988939817</v>
+        <v>773.5654479233031</v>
       </c>
       <c r="N15" t="n">
-        <v>1419.769249767209</v>
+        <v>1223.91819879653</v>
       </c>
       <c r="O15" t="n">
-        <v>1765.338355013687</v>
+        <v>1569.487304043009</v>
       </c>
       <c r="P15" t="n">
         <v>1829.833909236385</v>
@@ -5399,10 +5399,10 @@
         <v>746.0294123619401</v>
       </c>
       <c r="X15" t="n">
-        <v>706.0600631660809</v>
+        <v>578.0474612362641</v>
       </c>
       <c r="Y15" t="n">
-        <v>498.2997644011269</v>
+        <v>370.2871624713102</v>
       </c>
     </row>
     <row r="16">
@@ -5439,7 +5439,7 @@
         <v>36.5966781847277</v>
       </c>
       <c r="K16" t="n">
-        <v>54.18470296673335</v>
+        <v>54.18470296673334</v>
       </c>
       <c r="L16" t="n">
         <v>132.2177539456673</v>
@@ -5454,25 +5454,25 @@
         <v>393.3356370750313</v>
       </c>
       <c r="P16" t="n">
-        <v>431.9013221525054</v>
+        <v>431.9013221525053</v>
       </c>
       <c r="Q16" t="n">
-        <v>431.9013221525054</v>
+        <v>431.9013221525053</v>
       </c>
       <c r="R16" t="n">
-        <v>431.9013221525054</v>
+        <v>431.9013221525053</v>
       </c>
       <c r="S16" t="n">
-        <v>431.9013221525054</v>
+        <v>431.9013221525053</v>
       </c>
       <c r="T16" t="n">
-        <v>431.9013221525054</v>
+        <v>325.7888332356604</v>
       </c>
       <c r="U16" t="n">
-        <v>326.0138482216883</v>
+        <v>36.5966781847277</v>
       </c>
       <c r="V16" t="n">
-        <v>326.0138482216883</v>
+        <v>36.5966781847277</v>
       </c>
       <c r="W16" t="n">
         <v>36.5966781847277</v>
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1307.111989013772</v>
+        <v>1937.315630222944</v>
       </c>
       <c r="C17" t="n">
-        <v>1307.111989013772</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="D17" t="n">
-        <v>1307.111989013772</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E17" t="n">
-        <v>1307.111989013772</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F17" t="n">
-        <v>896.1260842241645</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G17" t="n">
-        <v>478.1622761223514</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H17" t="n">
-        <v>150.9675561583542</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
         <v>169.7108380533141</v>
@@ -5521,7 +5521,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T17" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U17" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V17" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W17" t="n">
-        <v>2070.717079250664</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X17" t="n">
-        <v>1697.251320989584</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="Y17" t="n">
-        <v>1307.111989013772</v>
+        <v>2113.174258592771</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
         <v>129.2001442204943</v>
@@ -5612,7 +5612,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5633,10 +5633,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>269.7756312415667</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>119.6589918292309</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5706,19 +5706,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V19" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W19" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X19" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y19" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>857.6950425204218</v>
+        <v>919.5755868835433</v>
       </c>
       <c r="C20" t="n">
-        <v>857.6950425204218</v>
+        <v>919.5755868835433</v>
       </c>
       <c r="D20" t="n">
-        <v>857.6950425204218</v>
+        <v>919.5755868835433</v>
       </c>
       <c r="E20" t="n">
-        <v>471.9067899221776</v>
+        <v>533.787334285299</v>
       </c>
       <c r="F20" t="n">
-        <v>471.9067899221776</v>
+        <v>122.8014294956915</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036444</v>
+        <v>122.8014294956915</v>
       </c>
       <c r="H20" t="n">
         <v>53.94298182036444</v>
@@ -5788,16 +5788,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V20" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W20" t="n">
-        <v>1993.54646147304</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="X20" t="n">
-        <v>1620.08070321196</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="Y20" t="n">
-        <v>1229.941371236148</v>
+        <v>919.5755868835433</v>
       </c>
     </row>
     <row r="21">
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C22" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D22" t="n">
         <v>53.94298182036444</v>
@@ -5934,28 +5934,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>679.5366885821171</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S22" t="n">
-        <v>679.5366885821171</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T22" t="n">
-        <v>679.5366885821171</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U22" t="n">
-        <v>679.5366885821171</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="V22" t="n">
-        <v>424.8522003762303</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="W22" t="n">
-        <v>424.8522003762303</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="X22" t="n">
-        <v>424.8522003762303</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="Y22" t="n">
-        <v>204.0596212327002</v>
+        <v>138.3857151273827</v>
       </c>
     </row>
     <row r="23">
@@ -5968,34 +5968,34 @@
         <v>1881.118241157406</v>
       </c>
       <c r="C23" t="n">
-        <v>1881.118241157406</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D23" t="n">
-        <v>1749.341643278937</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E23" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F23" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G24" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
@@ -6107,10 +6107,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6171,19 +6171,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>308.6274700262513</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V25" t="n">
-        <v>53.94298182036445</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W25" t="n">
         <v>53.94298182036445</v>
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>433.1733450557858</v>
+        <v>907.0907985422225</v>
       </c>
       <c r="C26" t="n">
-        <v>64.21082811537406</v>
+        <v>907.0907985422225</v>
       </c>
       <c r="D26" t="n">
-        <v>64.21082811537406</v>
+        <v>548.8250999354721</v>
       </c>
       <c r="E26" t="n">
-        <v>64.21082811537406</v>
+        <v>548.8250999354721</v>
       </c>
       <c r="F26" t="n">
-        <v>64.21082811537406</v>
+        <v>137.8391951458645</v>
       </c>
       <c r="G26" t="n">
-        <v>64.21082811537406</v>
+        <v>137.8391951458645</v>
       </c>
       <c r="H26" t="n">
-        <v>64.21082811537406</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S26" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T26" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U26" t="n">
-        <v>2267.209817970484</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V26" t="n">
-        <v>1936.146930626913</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W26" t="n">
-        <v>1583.378275356799</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X26" t="n">
-        <v>1209.912517095719</v>
+        <v>1683.829970582156</v>
       </c>
       <c r="Y26" t="n">
-        <v>819.7731851199076</v>
+        <v>1293.690638606344</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C27" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J27" t="n">
         <v>129.2001442204943</v>
@@ -6314,16 +6314,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6344,10 +6344,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6417,19 +6417,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W28" t="n">
-        <v>149.5382038240415</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X28" t="n">
-        <v>149.5382038240415</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y28" t="n">
-        <v>149.5382038240415</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1626.94664591678</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="C29" t="n">
-        <v>1626.94664591678</v>
+        <v>1524.727234344394</v>
       </c>
       <c r="D29" t="n">
-        <v>1268.68094731003</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E29" t="n">
-        <v>882.8926947117852</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F29" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J29" t="n">
         <v>169.7108380533141</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U29" t="n">
-        <v>2642.120401548716</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V29" t="n">
-        <v>2642.120401548716</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="W29" t="n">
-        <v>2642.120401548716</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="X29" t="n">
-        <v>2268.654643287636</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="Y29" t="n">
-        <v>1878.515311311824</v>
+        <v>1893.689751284805</v>
       </c>
     </row>
     <row r="30">
@@ -6518,67 +6518,67 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L30" t="n">
         <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6648,25 +6648,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>513.8405610245969</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U31" t="n">
-        <v>513.8405610245969</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V31" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W31" t="n">
-        <v>224.4233909876363</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>997.2466063457007</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="C32" t="n">
-        <v>997.2466063457007</v>
+        <v>995.7810913884502</v>
       </c>
       <c r="D32" t="n">
-        <v>997.2466063457007</v>
+        <v>637.5153927816998</v>
       </c>
       <c r="E32" t="n">
-        <v>997.2466063457007</v>
+        <v>637.5153927816998</v>
       </c>
       <c r="F32" t="n">
-        <v>586.2607015560932</v>
+        <v>637.5153927816998</v>
       </c>
       <c r="G32" t="n">
-        <v>168.2968934542801</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6727,25 +6727,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T32" t="n">
-        <v>2478.514423990285</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U32" t="n">
-        <v>2478.514423990285</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V32" t="n">
-        <v>2147.451536646714</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W32" t="n">
-        <v>2147.451536646714</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X32" t="n">
-        <v>1773.985778385634</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="Y32" t="n">
-        <v>1383.846446409822</v>
+        <v>1364.743608328862</v>
       </c>
     </row>
     <row r="33">
@@ -6761,28 +6761,28 @@
         <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E33" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F33" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
         <v>713.8062203571349</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036444</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6885,25 +6885,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>570.4247794971948</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T34" t="n">
-        <v>343.1165921657965</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U34" t="n">
-        <v>53.94298182036444</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V34" t="n">
-        <v>53.94298182036444</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W34" t="n">
-        <v>53.94298182036444</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036444</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036444</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1637.643464250441</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C35" t="n">
         <v>1268.68094731003</v>
@@ -6937,13 +6937,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K35" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V35" t="n">
-        <v>2366.086203674652</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="W35" t="n">
-        <v>2366.086203674652</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="X35" t="n">
-        <v>1992.620445413572</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y35" t="n">
-        <v>1637.643464250441</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7077,19 +7077,19 @@
         <v>500.820796875036</v>
       </c>
       <c r="D37" t="n">
-        <v>370.8558756644252</v>
+        <v>350.7041574627002</v>
       </c>
       <c r="E37" t="n">
-        <v>222.942782082032</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F37" t="n">
-        <v>222.942782082032</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I37" t="n">
         <v>53.94298182036445</v>
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1520.223993023726</v>
+        <v>1646.746562480844</v>
       </c>
       <c r="C38" t="n">
-        <v>1520.223993023726</v>
+        <v>1646.746562480844</v>
       </c>
       <c r="D38" t="n">
-        <v>1520.223993023726</v>
+        <v>1288.480863874094</v>
       </c>
       <c r="E38" t="n">
-        <v>1363.553390680693</v>
+        <v>902.6926112758497</v>
       </c>
       <c r="F38" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G38" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036444</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T38" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U38" t="n">
-        <v>2224.752638628376</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V38" t="n">
-        <v>1893.689751284805</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W38" t="n">
-        <v>1893.689751284805</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X38" t="n">
-        <v>1520.223993023726</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="Y38" t="n">
-        <v>1520.223993023726</v>
+        <v>2033.346402544966</v>
       </c>
     </row>
     <row r="39">
@@ -7241,13 +7241,13 @@
         <v>505.8730812692488</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I39" t="n">
         <v>53.94298182036444</v>
@@ -7271,7 +7271,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>688.885551920185</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C40" t="n">
-        <v>519.9493689922781</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D40" t="n">
-        <v>369.8327295799423</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E40" t="n">
-        <v>369.8327295799423</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F40" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G40" t="n">
         <v>53.94298182036444</v>
@@ -7362,22 +7362,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>571.1061430638138</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W40" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X40" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y40" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1191.63653417933</v>
+        <v>1090.465413902149</v>
       </c>
       <c r="C41" t="n">
-        <v>1191.63653417933</v>
+        <v>749.579650746969</v>
       </c>
       <c r="D41" t="n">
-        <v>833.3708355725795</v>
+        <v>749.579650746969</v>
       </c>
       <c r="E41" t="n">
-        <v>447.5825829743353</v>
+        <v>363.7913981487249</v>
       </c>
       <c r="F41" t="n">
-        <v>36.5966781847277</v>
+        <v>363.7913981487249</v>
       </c>
       <c r="G41" t="n">
-        <v>36.5966781847277</v>
+        <v>363.7913981487249</v>
       </c>
       <c r="H41" t="n">
-        <v>36.5966781847277</v>
+        <v>36.59667818472769</v>
       </c>
       <c r="I41" t="n">
-        <v>36.5966781847277</v>
+        <v>36.59667818472769</v>
       </c>
       <c r="J41" t="n">
         <v>152.3645344176774</v>
@@ -7420,43 +7420,43 @@
         <v>863.9361234867707</v>
       </c>
       <c r="M41" t="n">
-        <v>899.874045486902</v>
+        <v>1316.820016022776</v>
       </c>
       <c r="N41" t="n">
-        <v>1121.487795422307</v>
+        <v>1769.703908558781</v>
       </c>
       <c r="O41" t="n">
-        <v>1523.985669087822</v>
+        <v>1795.209602774178</v>
       </c>
       <c r="P41" t="n">
-        <v>1829.833909236385</v>
+        <v>1829.833909236384</v>
       </c>
       <c r="Q41" t="n">
-        <v>1829.833909236385</v>
+        <v>1829.833909236384</v>
       </c>
       <c r="R41" t="n">
-        <v>1774.805219766878</v>
+        <v>1829.833909236384</v>
       </c>
       <c r="S41" t="n">
-        <v>1774.805219766878</v>
+        <v>1829.833909236384</v>
       </c>
       <c r="T41" t="n">
-        <v>1556.170552738941</v>
+        <v>1829.833909236384</v>
       </c>
       <c r="U41" t="n">
-        <v>1302.408767377033</v>
+        <v>1829.833909236384</v>
       </c>
       <c r="V41" t="n">
-        <v>1302.408767377033</v>
+        <v>1829.833909236384</v>
       </c>
       <c r="W41" t="n">
-        <v>1302.408767377033</v>
+        <v>1477.06525396627</v>
       </c>
       <c r="X41" t="n">
-        <v>1302.408767377033</v>
+        <v>1477.06525396627</v>
       </c>
       <c r="Y41" t="n">
-        <v>1302.408767377033</v>
+        <v>1477.06525396627</v>
       </c>
     </row>
     <row r="42">
@@ -7466,40 +7466,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>370.2871624713102</v>
+        <v>811.914216575991</v>
       </c>
       <c r="C42" t="n">
-        <v>195.8341331901832</v>
+        <v>637.461187294864</v>
       </c>
       <c r="D42" t="n">
-        <v>195.8341331901832</v>
+        <v>488.5267776336127</v>
       </c>
       <c r="E42" t="n">
-        <v>36.5966781847277</v>
+        <v>488.5267776336127</v>
       </c>
       <c r="F42" t="n">
-        <v>36.5966781847277</v>
+        <v>341.9922196604977</v>
       </c>
       <c r="G42" t="n">
-        <v>36.5966781847277</v>
+        <v>204.0821066067638</v>
       </c>
       <c r="H42" t="n">
-        <v>36.5966781847277</v>
+        <v>98.63932463170566</v>
       </c>
       <c r="I42" t="n">
-        <v>36.5966781847277</v>
+        <v>36.59667818472769</v>
       </c>
       <c r="J42" t="n">
-        <v>36.5966781847277</v>
+        <v>111.8538405848575</v>
       </c>
       <c r="K42" t="n">
-        <v>291.8439986258262</v>
+        <v>367.101161025956</v>
       </c>
       <c r="L42" t="n">
-        <v>696.4599167214981</v>
+        <v>537.4703796196757</v>
       </c>
       <c r="M42" t="n">
-        <v>974.2755871017788</v>
+        <v>600.5692800652066</v>
       </c>
       <c r="N42" t="n">
         <v>1053.453172601212</v>
@@ -7508,34 +7508,34 @@
         <v>1493.589095621556</v>
       </c>
       <c r="P42" t="n">
-        <v>1829.833909236385</v>
+        <v>1829.833909236384</v>
       </c>
       <c r="Q42" t="n">
-        <v>1829.833909236385</v>
+        <v>1829.833909236384</v>
       </c>
       <c r="R42" t="n">
-        <v>1829.833909236385</v>
+        <v>1829.833909236384</v>
       </c>
       <c r="S42" t="n">
         <v>1671.660936880301</v>
       </c>
       <c r="T42" t="n">
-        <v>1472.78238900308</v>
+        <v>1671.660936880301</v>
       </c>
       <c r="U42" t="n">
-        <v>1244.61276497392</v>
+        <v>1443.49131285114</v>
       </c>
       <c r="V42" t="n">
-        <v>1009.460656742177</v>
+        <v>1443.49131285114</v>
       </c>
       <c r="W42" t="n">
-        <v>755.2233000139754</v>
+        <v>1189.253956122939</v>
       </c>
       <c r="X42" t="n">
-        <v>547.3717998084426</v>
+        <v>1187.889852361013</v>
       </c>
       <c r="Y42" t="n">
-        <v>538.5024994913783</v>
+        <v>980.1295535960589</v>
       </c>
     </row>
     <row r="43">
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>36.5966781847277</v>
+        <v>710.7826805707974</v>
       </c>
       <c r="C43" t="n">
-        <v>36.5966781847277</v>
+        <v>710.7826805707974</v>
       </c>
       <c r="D43" t="n">
-        <v>36.5966781847277</v>
+        <v>710.7826805707974</v>
       </c>
       <c r="E43" t="n">
-        <v>36.5966781847277</v>
+        <v>562.8695869884043</v>
       </c>
       <c r="F43" t="n">
-        <v>36.5966781847277</v>
+        <v>415.9796394904939</v>
       </c>
       <c r="G43" t="n">
-        <v>36.5966781847277</v>
+        <v>246.9798392288263</v>
       </c>
       <c r="H43" t="n">
-        <v>36.5966781847277</v>
+        <v>89.23146666135648</v>
       </c>
       <c r="I43" t="n">
-        <v>36.5966781847277</v>
+        <v>36.59667818472769</v>
       </c>
       <c r="J43" t="n">
-        <v>36.5966781847277</v>
+        <v>36.59667818472769</v>
       </c>
       <c r="K43" t="n">
         <v>92.89887125099582</v>
@@ -7605,16 +7605,16 @@
         <v>710.7826805707974</v>
       </c>
       <c r="V43" t="n">
-        <v>456.0981923649106</v>
+        <v>710.7826805707974</v>
       </c>
       <c r="W43" t="n">
-        <v>166.68102232795</v>
+        <v>710.7826805707974</v>
       </c>
       <c r="X43" t="n">
-        <v>36.5966781847277</v>
+        <v>710.7826805707974</v>
       </c>
       <c r="Y43" t="n">
-        <v>36.5966781847277</v>
+        <v>710.7826805707974</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>394.8623767914782</v>
+        <v>1251.334643674393</v>
       </c>
       <c r="C44" t="n">
-        <v>394.8623767914782</v>
+        <v>1251.334643674393</v>
       </c>
       <c r="D44" t="n">
-        <v>36.5966781847277</v>
+        <v>1251.334643674393</v>
       </c>
       <c r="E44" t="n">
-        <v>36.5966781847277</v>
+        <v>865.5463910761484</v>
       </c>
       <c r="F44" t="n">
-        <v>36.5966781847277</v>
+        <v>454.5604862865408</v>
       </c>
       <c r="G44" t="n">
-        <v>36.5966781847277</v>
+        <v>36.59667818472769</v>
       </c>
       <c r="H44" t="n">
-        <v>36.5966781847277</v>
+        <v>36.59667818472769</v>
       </c>
       <c r="I44" t="n">
-        <v>36.5966781847277</v>
+        <v>36.59667818472769</v>
       </c>
       <c r="J44" t="n">
-        <v>36.5966781847277</v>
+        <v>36.59667818472769</v>
       </c>
       <c r="K44" t="n">
-        <v>330.8474892047262</v>
+        <v>104.2474724497646</v>
       </c>
       <c r="L44" t="n">
-        <v>748.168267253821</v>
+        <v>521.5682504988595</v>
       </c>
       <c r="M44" t="n">
-        <v>1080.35455189344</v>
+        <v>974.4521430348645</v>
       </c>
       <c r="N44" t="n">
-        <v>1121.487795422307</v>
+        <v>1427.33603557087</v>
       </c>
       <c r="O44" t="n">
-        <v>1523.985669087822</v>
+        <v>1829.833909236384</v>
       </c>
       <c r="P44" t="n">
-        <v>1829.833909236385</v>
+        <v>1829.833909236384</v>
       </c>
       <c r="Q44" t="n">
-        <v>1829.833909236385</v>
+        <v>1829.833909236384</v>
       </c>
       <c r="R44" t="n">
-        <v>1829.833909236385</v>
+        <v>1774.805219766878</v>
       </c>
       <c r="S44" t="n">
-        <v>1829.833909236385</v>
+        <v>1774.805219766878</v>
       </c>
       <c r="T44" t="n">
-        <v>1829.833909236385</v>
+        <v>1774.805219766878</v>
       </c>
       <c r="U44" t="n">
-        <v>1829.833909236385</v>
+        <v>1774.805219766878</v>
       </c>
       <c r="V44" t="n">
-        <v>1498.771021892814</v>
+        <v>1774.805219766878</v>
       </c>
       <c r="W44" t="n">
-        <v>1498.771021892814</v>
+        <v>1774.805219766878</v>
       </c>
       <c r="X44" t="n">
-        <v>1125.305263631734</v>
+        <v>1774.805219766878</v>
       </c>
       <c r="Y44" t="n">
-        <v>735.1659316559226</v>
+        <v>1384.665887791066</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>370.2871624713102</v>
+        <v>490.9266293217489</v>
       </c>
       <c r="C45" t="n">
-        <v>195.8341331901832</v>
+        <v>490.9266293217489</v>
       </c>
       <c r="D45" t="n">
-        <v>195.8341331901832</v>
+        <v>341.9922196604977</v>
       </c>
       <c r="E45" t="n">
-        <v>36.5966781847277</v>
+        <v>341.9922196604977</v>
       </c>
       <c r="F45" t="n">
-        <v>36.5966781847277</v>
+        <v>341.9922196604977</v>
       </c>
       <c r="G45" t="n">
-        <v>36.5966781847277</v>
+        <v>204.0821066067638</v>
       </c>
       <c r="H45" t="n">
-        <v>36.5966781847277</v>
+        <v>98.63932463170566</v>
       </c>
       <c r="I45" t="n">
-        <v>36.5966781847277</v>
+        <v>36.59667818472769</v>
       </c>
       <c r="J45" t="n">
-        <v>111.8538405848575</v>
+        <v>36.59667818472769</v>
       </c>
       <c r="K45" t="n">
-        <v>367.101161025956</v>
+        <v>291.8439986258262</v>
       </c>
       <c r="L45" t="n">
-        <v>771.7170791216279</v>
+        <v>696.4599167214981</v>
       </c>
       <c r="M45" t="n">
-        <v>834.8159795671588</v>
+        <v>759.558817167029</v>
       </c>
       <c r="N45" t="n">
-        <v>1053.453172601212</v>
+        <v>1196.658329689153</v>
       </c>
       <c r="O45" t="n">
-        <v>1493.589095621556</v>
+        <v>1636.794252709497</v>
       </c>
       <c r="P45" t="n">
-        <v>1829.833909236385</v>
+        <v>1657.760925370788</v>
       </c>
       <c r="Q45" t="n">
-        <v>1829.833909236385</v>
+        <v>1829.833909236384</v>
       </c>
       <c r="R45" t="n">
-        <v>1829.833909236385</v>
+        <v>1779.620538648209</v>
       </c>
       <c r="S45" t="n">
-        <v>1671.660936880301</v>
+        <v>1621.447566292125</v>
       </c>
       <c r="T45" t="n">
-        <v>1472.78238900308</v>
+        <v>1422.569018414904</v>
       </c>
       <c r="U45" t="n">
-        <v>1244.61276497392</v>
+        <v>1194.399394385744</v>
       </c>
       <c r="V45" t="n">
-        <v>1208.351655190067</v>
+        <v>959.2472861540014</v>
       </c>
       <c r="W45" t="n">
-        <v>954.114298461865</v>
+        <v>705.0099294257998</v>
       </c>
       <c r="X45" t="n">
-        <v>746.2627982563322</v>
+        <v>497.158429220267</v>
       </c>
       <c r="Y45" t="n">
-        <v>538.5024994913783</v>
+        <v>490.9266293217489</v>
       </c>
     </row>
     <row r="46">
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>36.5966781847277</v>
+        <v>36.59667818472769</v>
       </c>
       <c r="C46" t="n">
-        <v>36.5966781847277</v>
+        <v>36.59667818472769</v>
       </c>
       <c r="D46" t="n">
-        <v>36.5966781847277</v>
+        <v>36.59667818472769</v>
       </c>
       <c r="E46" t="n">
-        <v>36.5966781847277</v>
+        <v>36.59667818472769</v>
       </c>
       <c r="F46" t="n">
-        <v>36.5966781847277</v>
+        <v>36.59667818472769</v>
       </c>
       <c r="G46" t="n">
-        <v>36.5966781847277</v>
+        <v>36.59667818472769</v>
       </c>
       <c r="H46" t="n">
-        <v>36.5966781847277</v>
+        <v>36.59667818472769</v>
       </c>
       <c r="I46" t="n">
-        <v>36.5966781847277</v>
+        <v>36.59667818472769</v>
       </c>
       <c r="J46" t="n">
-        <v>36.5966781847277</v>
+        <v>36.59667818472769</v>
       </c>
       <c r="K46" t="n">
         <v>92.89887125099582</v>
@@ -7836,22 +7836,22 @@
         <v>710.7826805707974</v>
       </c>
       <c r="T46" t="n">
-        <v>710.7826805707974</v>
+        <v>483.4744932393992</v>
       </c>
       <c r="U46" t="n">
-        <v>710.7826805707974</v>
+        <v>483.4744932393992</v>
       </c>
       <c r="V46" t="n">
-        <v>554.0033991197056</v>
+        <v>483.4744932393992</v>
       </c>
       <c r="W46" t="n">
-        <v>264.586229082745</v>
+        <v>257.3892573282578</v>
       </c>
       <c r="X46" t="n">
-        <v>36.5966781847277</v>
+        <v>257.3892573282578</v>
       </c>
       <c r="Y46" t="n">
-        <v>36.5966781847277</v>
+        <v>36.59667818472769</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8063,13 +8063,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>241.9453110519923</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>382.1386950879875</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>382.1386950879875</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8935,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9008,10 +9008,10 @@
         <v>88.00464920030086</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>71.46969525869163</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>366.0065426425193</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9023,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>120.6334242251101</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>87.51461953511343</v>
+        <v>87.51461953511344</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9260,10 +9260,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9962,7 +9962,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516219</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10199,7 +10199,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10919,10 +10919,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11068,16 +11068,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>421.1575459958322</v>
       </c>
       <c r="N41" t="n">
-        <v>182.3035418247858</v>
+        <v>415.9097464718566</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>47.83513879132487</v>
       </c>
       <c r="Q41" t="n">
         <v>58.3174843700358</v>
@@ -11138,19 +11138,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>134.2275175237095</v>
       </c>
       <c r="M42" t="n">
-        <v>216.885626196717</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>377.4811182187594</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11299,22 +11299,22 @@
         <v>52.15938665394273</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>95.25650675807229</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>299.2407703429169</v>
+        <v>421.1575459958322</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>415.9097464718566</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>12.86109185980291</v>
       </c>
       <c r="Q44" t="n">
         <v>58.3174843700358</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11387,16 +11387,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>140.8682904390101</v>
+        <v>361.5373000229195</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.26619292211501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,31 +22546,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22628,16 +22628,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>153.0561865734321</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -22646,7 +22646,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22676,25 +22676,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22704,34 +22704,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,34 +22746,34 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22783,31 +22783,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>362.8771690273874</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22862,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,10 +22910,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -22925,10 +22925,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>181.7027159132843</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -22941,34 +22941,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,34 +22983,34 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23020,31 +23020,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -23077,19 +23077,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>358.5380445222895</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,10 +23147,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>73.91671058399685</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -23159,10 +23159,10 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -23178,34 +23178,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,34 +23220,34 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23263,13 +23263,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>156.8217927382072</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>101.6133076792576</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>277.9387031836447</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23339,16 +23339,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>142.3652307248553</v>
+        <v>48.35895678352469</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>136.9324908012807</v>
@@ -23390,7 +23390,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>198.508004016692</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>159.1634479684299</v>
       </c>
       <c r="I13" t="n">
-        <v>145.0876929486858</v>
+        <v>40.25909375717694</v>
       </c>
       <c r="J13" t="n">
         <v>68.99661801045805</v>
@@ -23469,16 +23469,16 @@
         <v>218.011322023392</v>
       </c>
       <c r="T13" t="n">
-        <v>121.4218833419807</v>
+        <v>226.4732473696572</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.3002335004234</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>414.5345316725085</v>
@@ -23545,25 +23545,25 @@
         <v>101.6133076792576</v>
       </c>
       <c r="S14" t="n">
-        <v>191.5145789473921</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.7330284880335</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2841964404264</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>343.8866665160718</v>
+        <v>113.4589241537598</v>
       </c>
     </row>
     <row r="15">
@@ -23579,16 +23579,16 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.9324908012807</v>
       </c>
       <c r="H15" t="n">
         <v>108.2657948989106</v>
@@ -23639,7 +23639,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>166.2033294995769</v>
+        <v>39.47085358905824</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23706,16 +23706,16 @@
         <v>218.011322023392</v>
       </c>
       <c r="T16" t="n">
-        <v>226.4732473696572</v>
+        <v>121.4218833419807</v>
       </c>
       <c r="U16" t="n">
-        <v>181.4716343089145</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>208.633799577352</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>55.87698765025137</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
         <v>251.2241675082893</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23892,13 +23892,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>81.37511273779135</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23910,10 +23910,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801579</v>
@@ -23946,10 +23946,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>14.20997623491149</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23980,13 +23980,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>255.7529095657834</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24028,13 +24028,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>96.23367420798925</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24174,19 +24174,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>98.55881931208393</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24208,10 +24208,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>113.6430124827874</v>
       </c>
       <c r="D23" t="n">
-        <v>224.2242097209983</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>17.64056718375454</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24423,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24445,25 +24445,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>240.8655215721121</v>
       </c>
       <c r="I26" t="n">
-        <v>141.7661484128018</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,10 +24490,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
         <v>216.4483203576578</v>
@@ -24505,7 +24505,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>85.19271039829698</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>96.44405126592673</v>
       </c>
       <c r="I28" t="n">
         <v>134.9656217923382</v>
@@ -24657,13 +24657,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>133.680862922387</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>101.1972174566621</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>8.029132914089132e-13</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24888,22 +24888,22 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>96.0104806616809</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>56.93405031343804</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>311.9015721782914</v>
       </c>
       <c r="H32" t="n">
-        <v>210.7124002467807</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25125,13 +25125,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>56.01837628787186</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>110.3648512204698</v>
       </c>
     </row>
     <row r="35">
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>127.8830122599993</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>34.81072730455429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25317,22 +25317,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>19.95020101970769</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>133.0270685759263</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>45.199959188537</v>
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>226.8264737526592</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>304.3208553659331</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25447,19 +25447,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>140.9809822185506</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -25602,10 +25602,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>69.58249272689005</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25614,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>273.0693307977551</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>27.7959862473798</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25675,22 +25675,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25712,22 +25712,22 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250819</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25760,22 +25760,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>204.4225224791709</v>
       </c>
       <c r="Y42" t="n">
-        <v>196.9020884634108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25794,19 +25794,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>82.85718120047575</v>
       </c>
       <c r="J43" t="n">
         <v>45.19995918853701</v>
@@ -25845,13 +25845,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>96.92615468724711</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>45.83332234768068</v>
+        <v>250.7359099879742</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25924,13 +25924,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26003,7 +26003,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>196.9020884634108</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>199.5132138777715</v>
       </c>
     </row>
     <row r="46">
@@ -26076,22 +26076,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>96.92615468724711</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>62.69861478456102</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1052190.752410248</v>
+        <v>465726.2426483055</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1052190.752410248</v>
+        <v>465726.2426483055</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1052190.752410248</v>
+        <v>465726.2426483055</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>616452.2567165277</v>
+        <v>616452.2567165281</v>
       </c>
     </row>
     <row r="7">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>620689.7230914094</v>
+        <v>620689.7230914093</v>
       </c>
     </row>
     <row r="16">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.9734253559</v>
+        <v>182776.7397844656</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.9734253559</v>
+        <v>182776.7397844657</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.9734253559</v>
+        <v>182776.7397844657</v>
       </c>
       <c r="E2" t="n">
         <v>250990.6948546834</v>
@@ -26328,31 +26328,31 @@
         <v>250990.6948546834</v>
       </c>
       <c r="G2" t="n">
+        <v>318067.8710173335</v>
+      </c>
+      <c r="H2" t="n">
+        <v>318067.8710173335</v>
+      </c>
+      <c r="I2" t="n">
         <v>318067.8710173334</v>
-      </c>
-      <c r="H2" t="n">
-        <v>318067.8710173334</v>
-      </c>
-      <c r="I2" t="n">
-        <v>318067.8710173333</v>
       </c>
       <c r="J2" t="n">
         <v>318067.8710173334</v>
       </c>
       <c r="K2" t="n">
-        <v>318067.8710173335</v>
+        <v>318067.8710173333</v>
       </c>
       <c r="L2" t="n">
         <v>318067.8710173335</v>
       </c>
       <c r="M2" t="n">
+        <v>318067.8710173333</v>
+      </c>
+      <c r="N2" t="n">
         <v>318067.8710173335</v>
       </c>
-      <c r="N2" t="n">
-        <v>318067.8710173334</v>
-      </c>
       <c r="O2" t="n">
-        <v>261605.2884109593</v>
+        <v>261605.2884109592</v>
       </c>
       <c r="P2" t="n">
         <v>261605.2884109592</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>204549.3822392231</v>
+        <v>204549.3822392232</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910619</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>346065.6887052709</v>
+        <v>67120.16107081145</v>
       </c>
       <c r="C4" t="n">
-        <v>346065.6887052709</v>
+        <v>67120.16107081145</v>
       </c>
       <c r="D4" t="n">
-        <v>346065.6887052709</v>
+        <v>67120.16107081145</v>
       </c>
       <c r="E4" t="n">
         <v>69182.04711486028</v>
       </c>
       <c r="F4" t="n">
-        <v>69182.04711486028</v>
+        <v>69182.0471148603</v>
       </c>
       <c r="G4" t="n">
-        <v>71376.38478147393</v>
+        <v>71376.38478147394</v>
       </c>
       <c r="H4" t="n">
         <v>71376.38478147393</v>
@@ -26444,22 +26444,22 @@
         <v>71376.38478147394</v>
       </c>
       <c r="K4" t="n">
+        <v>71376.38478147393</v>
+      </c>
+      <c r="L4" t="n">
         <v>71376.38478147394</v>
-      </c>
-      <c r="L4" t="n">
-        <v>71376.38478147393</v>
       </c>
       <c r="M4" t="n">
         <v>71376.38478147394</v>
       </c>
       <c r="N4" t="n">
-        <v>71376.38478147393</v>
+        <v>71376.38478147394</v>
       </c>
       <c r="O4" t="n">
         <v>50270.5414163547</v>
       </c>
       <c r="P4" t="n">
-        <v>50270.5414163547</v>
+        <v>50270.54141635468</v>
       </c>
     </row>
     <row r="5">
@@ -26508,10 +26508,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>36048.28730032554</v>
+        <v>36048.28730032553</v>
       </c>
       <c r="P5" t="n">
-        <v>36048.28730032554</v>
+        <v>36048.28730032553</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-23543.41557522438</v>
+        <v>-14615.92264365928</v>
       </c>
       <c r="C6" t="n">
-        <v>57226.01595632337</v>
+        <v>66153.5088878885</v>
       </c>
       <c r="D6" t="n">
-        <v>57226.01595632337</v>
+        <v>66153.5088878885</v>
       </c>
       <c r="E6" t="n">
-        <v>-77436.71115352312</v>
+        <v>-69231.07248472291</v>
       </c>
       <c r="F6" t="n">
-        <v>140712.0077876599</v>
+        <v>148917.6464564601</v>
       </c>
       <c r="G6" t="n">
-        <v>-13157.78781259235</v>
+        <v>-7696.215441355082</v>
       </c>
       <c r="H6" t="n">
-        <v>191391.5944266308</v>
+        <v>196853.1667978682</v>
       </c>
       <c r="I6" t="n">
-        <v>191391.5944266307</v>
+        <v>196853.166797868</v>
       </c>
       <c r="J6" t="n">
-        <v>128331.6518275245</v>
+        <v>133793.2241987619</v>
       </c>
       <c r="K6" t="n">
-        <v>191391.5944266309</v>
+        <v>196853.166797868</v>
       </c>
       <c r="L6" t="n">
-        <v>191391.5944266309</v>
+        <v>196853.1667978682</v>
       </c>
       <c r="M6" t="n">
-        <v>137452.8368927631</v>
+        <v>142914.4092640001</v>
       </c>
       <c r="N6" t="n">
-        <v>191391.5944266308</v>
+        <v>196853.1667978682</v>
       </c>
       <c r="O6" t="n">
-        <v>166651.5649208975</v>
+        <v>174422.9702169409</v>
       </c>
       <c r="P6" t="n">
-        <v>166651.5649208974</v>
+        <v>174422.9702169408</v>
       </c>
     </row>
   </sheetData>
@@ -26804,7 +26804,7 @@
         <v>457.4584773090962</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
         <v>674.2872727545555</v>
@@ -26813,13 +26813,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="K4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="L4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="K4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="L4" t="n">
-        <v>674.2872727545555</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545556</v>
@@ -26828,10 +26828,10 @@
         <v>674.2872727545555</v>
       </c>
       <c r="O4" t="n">
-        <v>457.4584773090962</v>
+        <v>457.4584773090961</v>
       </c>
       <c r="P4" t="n">
-        <v>457.4584773090962</v>
+        <v>457.4584773090961</v>
       </c>
     </row>
   </sheetData>
@@ -27020,31 +27020,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>216.4441884314371</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>216.8287954454594</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>241.0142888776589</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>216.4441884314372</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>216.8287954454593</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>216.4441884314371</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>216.4441884314372</v>
+        <v>216.4441884314371</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>216.8287954454593</v>
+        <v>216.8287954454594</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>301.251446211517</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27475,7 +27475,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>27.26179070270005</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27536,34 +27536,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>125.1208257738508</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27581,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>349.7082848322977</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27694,25 +27694,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27754,16 +27754,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>58.5350731370086</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,34 +27773,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>125.1208257738508</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27818,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>363.7840648101837</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27931,25 +27931,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>143.0499213857142</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -27994,13 +27994,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>119.7495544039028</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31989,19 +31989,19 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7682058426265816</v>
+        <v>0.7682058426265814</v>
       </c>
       <c r="H14" t="n">
         <v>7.86738808579948</v>
       </c>
       <c r="I14" t="n">
-        <v>29.61625574786132</v>
+        <v>29.61625574786131</v>
       </c>
       <c r="J14" t="n">
-        <v>65.20051063562789</v>
+        <v>65.20051063562788</v>
       </c>
       <c r="K14" t="n">
-        <v>97.71866395401111</v>
+        <v>97.71866395401109</v>
       </c>
       <c r="L14" t="n">
         <v>121.2286435102944</v>
@@ -32013,25 +32013,25 @@
         <v>137.0728890144676</v>
       </c>
       <c r="O14" t="n">
-        <v>129.4340421668496</v>
+        <v>129.4340421668495</v>
       </c>
       <c r="P14" t="n">
         <v>110.4689604270058</v>
       </c>
       <c r="Q14" t="n">
-        <v>82.95758868794132</v>
+        <v>82.95758868794131</v>
       </c>
       <c r="R14" t="n">
-        <v>48.25581026189205</v>
+        <v>48.25581026189204</v>
       </c>
       <c r="S14" t="n">
-        <v>17.50549063885325</v>
+        <v>17.50549063885324</v>
       </c>
       <c r="T14" t="n">
-        <v>3.362821076097863</v>
+        <v>3.362821076097862</v>
       </c>
       <c r="U14" t="n">
-        <v>0.06145646741012652</v>
+        <v>0.06145646741012651</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4110263619298737</v>
+        <v>0.4110263619298736</v>
       </c>
       <c r="H15" t="n">
-        <v>3.969649337585886</v>
+        <v>3.969649337585885</v>
       </c>
       <c r="I15" t="n">
         <v>14.15156553135749</v>
@@ -32083,34 +32083,34 @@
         <v>66.37174371566736</v>
       </c>
       <c r="L15" t="n">
-        <v>89.24500020762456</v>
+        <v>89.24500020762454</v>
       </c>
       <c r="M15" t="n">
-        <v>104.1447058275825</v>
+        <v>104.1447058275824</v>
       </c>
       <c r="N15" t="n">
-        <v>106.9011062985947</v>
+        <v>106.9011062985946</v>
       </c>
       <c r="O15" t="n">
-        <v>97.79362743688533</v>
+        <v>97.79362743688532</v>
       </c>
       <c r="P15" t="n">
-        <v>78.48800765659141</v>
+        <v>78.48800765659139</v>
       </c>
       <c r="Q15" t="n">
-        <v>52.46715455090809</v>
+        <v>52.46715455090808</v>
       </c>
       <c r="R15" t="n">
         <v>25.51968938368111</v>
       </c>
       <c r="S15" t="n">
-        <v>7.634634398127254</v>
+        <v>7.634634398127252</v>
       </c>
       <c r="T15" t="n">
-        <v>1.656724678129622</v>
+        <v>1.656724678129621</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02704120802170223</v>
+        <v>0.02704120802170222</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,31 +32150,31 @@
         <v>0.3445906945716369</v>
       </c>
       <c r="H16" t="n">
-        <v>3.063724539009647</v>
+        <v>3.063724539009646</v>
       </c>
       <c r="I16" t="n">
         <v>10.3627819785725</v>
       </c>
       <c r="J16" t="n">
-        <v>24.36256210621473</v>
+        <v>24.36256210621472</v>
       </c>
       <c r="K16" t="n">
-        <v>40.03517342386836</v>
+        <v>40.03517342386835</v>
       </c>
       <c r="L16" t="n">
-        <v>51.23123835476865</v>
+        <v>51.23123835476864</v>
       </c>
       <c r="M16" t="n">
-        <v>54.01615769544304</v>
+        <v>54.01615769544303</v>
       </c>
       <c r="N16" t="n">
-        <v>52.73177419749426</v>
+        <v>52.73177419749425</v>
       </c>
       <c r="O16" t="n">
-        <v>48.70632835636194</v>
+        <v>48.70632835636193</v>
       </c>
       <c r="P16" t="n">
-        <v>41.67667818710051</v>
+        <v>41.6766781871005</v>
       </c>
       <c r="Q16" t="n">
         <v>28.85477170635771</v>
@@ -32183,13 +32183,13 @@
         <v>15.49405068501196</v>
       </c>
       <c r="S16" t="n">
-        <v>6.005276013580253</v>
+        <v>6.005276013580252</v>
       </c>
       <c r="T16" t="n">
-        <v>1.472342058624267</v>
+        <v>1.472342058624266</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01879585606754386</v>
+        <v>0.01879585606754385</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32250,22 +32250,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32338,16 +32338,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32408,13 +32408,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
@@ -32423,7 +32423,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -34783,13 +34783,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>99.81127712997396</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34944,7 +34944,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>240.0046611659691</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>240.0046611659691</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>53.25122128101538</v>
+        <v>53.25122128101536</v>
       </c>
       <c r="K14" t="n">
         <v>201.7742254801953</v>
@@ -35655,7 +35655,7 @@
         <v>303.1234430907576</v>
       </c>
       <c r="M14" t="n">
-        <v>354.0575244296646</v>
+        <v>354.0575244296648</v>
       </c>
       <c r="N14" t="n">
         <v>345.0067498298608</v>
@@ -35667,7 +35667,7 @@
         <v>201.0346728432189</v>
       </c>
       <c r="Q14" t="n">
-        <v>72.96688947339652</v>
+        <v>72.96688947339651</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,13 +35728,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>192.995541753887</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>321.5309657312096</v>
+        <v>316.6971630702697</v>
       </c>
       <c r="M15" t="n">
-        <v>427.7157356555641</v>
+        <v>427.715735655564</v>
       </c>
       <c r="N15" t="n">
         <v>454.9017685588149</v>
@@ -35743,7 +35743,7 @@
         <v>349.0597022691704</v>
       </c>
       <c r="P15" t="n">
-        <v>65.14702446737131</v>
+        <v>262.9763688821983</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35807,19 +35807,19 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>17.76568159798551</v>
+        <v>17.7656815979855</v>
       </c>
       <c r="L16" t="n">
-        <v>78.82126361508479</v>
+        <v>78.82126361508477</v>
       </c>
       <c r="M16" t="n">
         <v>93.60003465728363</v>
       </c>
       <c r="N16" t="n">
-        <v>96.86394657672285</v>
+        <v>96.86394657672284</v>
       </c>
       <c r="O16" t="n">
-        <v>73.29145627040161</v>
+        <v>73.2914562704016</v>
       </c>
       <c r="P16" t="n">
         <v>38.95523745199399</v>
@@ -35898,10 +35898,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35977,13 +35977,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36059,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36682,7 +36682,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279158</v>
       </c>
       <c r="N27" t="n">
         <v>559.3197334338902</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36919,7 +36919,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M30" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
         <v>559.3197334338902</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37405,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37639,10 +37639,10 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,16 +37788,16 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>36.30093131326393</v>
+        <v>457.4584773090961</v>
       </c>
       <c r="N41" t="n">
-        <v>223.8522726620253</v>
+        <v>457.4584773090961</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530451</v>
+        <v>25.76332749029979</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116797</v>
+        <v>34.97404693152195</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
-        <v>408.7029475713857</v>
+        <v>172.090119791636</v>
       </c>
       <c r="M42" t="n">
-        <v>280.6218892730108</v>
+        <v>63.73626307629385</v>
       </c>
       <c r="N42" t="n">
-        <v>79.97735909033668</v>
+        <v>457.4584773090961</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245897</v>
@@ -38019,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>68.33413562124944</v>
       </c>
       <c r="L44" t="n">
         <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>335.5417016561808</v>
+        <v>457.4584773090961</v>
       </c>
       <c r="N44" t="n">
-        <v>41.54873083723948</v>
+        <v>457.4584773090961</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116797</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38107,16 +38107,16 @@
         <v>63.73626307629385</v>
       </c>
       <c r="N45" t="n">
-        <v>220.8456495293468</v>
+        <v>441.5146591132562</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>21.17845723362746</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
